--- a/results/results-array.xlsx
+++ b/results/results-array.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fe49316a3e0e438/Documents/Education/University/Semester 5/CM30225 Parallel Computing/Distributed Memory Coursework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fe49316a3e0e438/Documents/Education/University/Semester 5/CM30225 Parallel Computing/Distributed Memory Coursework/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="392" documentId="8_{5BF57FE9-D1EF-4A5C-B17C-782904888570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0478A9-BB17-49D1-8469-EF37844ED428}"/>
@@ -41,7 +41,7 @@
     <definedName name="ExternalData_8" localSheetId="8" hidden="1">'results-array'!$AE$2:$AF$30</definedName>
     <definedName name="ExternalData_8" localSheetId="0" hidden="1">'results-array-160'!$A$1:$B$29</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13423,8 +13423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A734A18C-7E20-43C5-8E80-5F00A8C38BDB}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
